--- a/courses/excel/onshore/non-coe/aibt/SHELDON_SCHOOL_OF_HOSPITALITY.xlsx
+++ b/courses/excel/onshore/non-coe/aibt/SHELDON_SCHOOL_OF_HOSPITALITY.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchen\OneDrive - Amadeus Workplace\Documents\Brochure APP\development\documents\new version\onshore\non-coe\aibt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC104856B95C5AF65BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE043836-8F59-4393-A538-221B66AEE7E9}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_8B0793BC943FBA864431EAE17198CF72AFB0052E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD42993-99C3-4A62-838A-794C36AE25B9}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">courses!$A$1:$N$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">courses!$A$1:$M$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
   <si>
     <t>vetCode</t>
   </si>
@@ -45,156 +45,378 @@
     <t>duration</t>
   </si>
   <si>
+    <t>durationMin</t>
+  </si>
+  <si>
+    <t>durationMax</t>
+  </si>
+  <si>
     <t>durationDetail</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>Hospitality</t>
-  </si>
-  <si>
     <t>NSW/QLD/TAS</t>
   </si>
   <si>
+    <t>SIT30816/ SIT60316</t>
+  </si>
+  <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>placementDuration</t>
+  </si>
+  <si>
+    <t>placementFee</t>
+  </si>
+  <si>
+    <t>tuitionDetail</t>
+  </si>
+  <si>
+    <t>tuitionHalf</t>
+  </si>
+  <si>
+    <t>tuitionHalfDetail</t>
+  </si>
+  <si>
+    <t>locationDetail</t>
+  </si>
+  <si>
+    <t>placementDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionValidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIT30616</t>
+  </si>
+  <si>
+    <t>091450J</t>
+  </si>
+  <si>
+    <t>SIT40416</t>
+  </si>
+  <si>
+    <t>090975K</t>
+  </si>
+  <si>
     <t>SIT50416</t>
   </si>
   <si>
     <t>091074F</t>
   </si>
   <si>
+    <t>SIT60316</t>
+  </si>
+  <si>
+    <t>SIT30816</t>
+  </si>
+  <si>
+    <t>093480J</t>
+  </si>
+  <si>
+    <t>SIT40516</t>
+  </si>
+  <si>
+    <t>095244E</t>
+  </si>
+  <si>
+    <t>SIT31116</t>
+  </si>
+  <si>
+    <t>093487B</t>
+  </si>
+  <si>
+    <t>SIT40816</t>
+  </si>
+  <si>
+    <t>093488A</t>
+  </si>
+  <si>
+    <t>SIT31016</t>
+  </si>
+  <si>
+    <t>093481G</t>
+  </si>
+  <si>
+    <t>SIT40716</t>
+  </si>
+  <si>
+    <t>093479B</t>
+  </si>
+  <si>
+    <t>FBP30317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 106671B</t>
+  </si>
+  <si>
+    <t>FBP40217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 106672A</t>
+  </si>
+  <si>
+    <t>SIT50316</t>
+  </si>
+  <si>
+    <t>093811F</t>
+  </si>
+  <si>
+    <t>SIT60216</t>
+  </si>
+  <si>
+    <t>093812E</t>
+  </si>
+  <si>
+    <t>SIT50116</t>
+  </si>
+  <si>
+    <t>095245D</t>
+  </si>
+  <si>
+    <t>SIT60116</t>
+  </si>
+  <si>
+    <t>095246C</t>
+  </si>
+  <si>
+    <t>SIT31116/ SIT40816</t>
+  </si>
+  <si>
+    <t>093487B/093488A</t>
+  </si>
+  <si>
+    <t>SIT30816/ SIT40516</t>
+  </si>
+  <si>
+    <t>093480J/095244E</t>
+  </si>
+  <si>
+    <t>SIT31016/ SIT40716</t>
+  </si>
+  <si>
+    <t>093481G/093479B</t>
+  </si>
+  <si>
+    <t>SIT30816/ SIT50416</t>
+  </si>
+  <si>
+    <t>093480J/091074F</t>
+  </si>
+  <si>
+    <t>SIT40816/ SIT60316</t>
+  </si>
+  <si>
+    <t>SIT40516/ SIT60316</t>
+  </si>
+  <si>
+    <t>095244E/091132A/095335B</t>
+  </si>
+  <si>
+    <t>SIT40716/ SIT60316</t>
+  </si>
+  <si>
+    <t>093479B/091132A/095335B</t>
+  </si>
+  <si>
+    <t>SIT50416/ SIT60316</t>
+  </si>
+  <si>
+    <t>091074F/091132A/095335B</t>
+  </si>
+  <si>
+    <t>SIT50116/ SIT60116</t>
+  </si>
+  <si>
+    <t>095245D/095246C</t>
+  </si>
+  <si>
+    <t>SIT50316/ SIT60216</t>
+  </si>
+  <si>
+    <t>093811F/093812E</t>
+  </si>
+  <si>
+    <t>Certificate III in Hospitality</t>
+  </si>
+  <si>
+    <t>Certificate IV in Hospitality</t>
+  </si>
+  <si>
     <t>Diploma of Hospitality Management</t>
   </si>
   <si>
-    <t>SIT30816</t>
-  </si>
-  <si>
-    <t>093480J</t>
+    <t xml:space="preserve">Advanced Diploma of Hospitality Management </t>
   </si>
   <si>
     <t>Certificate III in Commercial Cookery</t>
   </si>
   <si>
+    <t>Certificate IV in Commercial Cookery</t>
+  </si>
+  <si>
+    <t>Certificate III in Asian Cookery</t>
+  </si>
+  <si>
+    <t>Certificate IV in Asian Cookery</t>
+  </si>
+  <si>
+    <t>Certificate III in Patisserie</t>
+  </si>
+  <si>
+    <t>Certificate IV in Patisserie</t>
+  </si>
+  <si>
+    <t>Certificate III in Cake and Pastry</t>
+  </si>
+  <si>
+    <t>Certificate IV in Baking</t>
+  </si>
+  <si>
+    <t>Diploma of Event Management</t>
+  </si>
+  <si>
+    <t>Advanced Diploma of Event Management</t>
+  </si>
+  <si>
+    <t>Diploma of Travel and Tourism Management</t>
+  </si>
+  <si>
+    <t>Advanced Diploma of Travel and Tourism Management</t>
+  </si>
+  <si>
+    <t>Certificate III in Asian Cookery + Certificate IV in Asian Cookery</t>
+  </si>
+  <si>
+    <t>Certificate III in Commercial Cookery + Certificate IV in Commercial Cookery</t>
+  </si>
+  <si>
+    <t>Certificate III in Patisserie + Certificate IV in Patisserie</t>
+  </si>
+  <si>
+    <t>Certificate III in Commercial Cookery + Diploma of Hospitality Management</t>
+  </si>
+  <si>
+    <t>Certificate IV in Asian Cookery + Advanced Diploma of Hospitality Management</t>
+  </si>
+  <si>
+    <t>Certificate IV in Commercial Cookery + Advanced Diploma of Hospitality Management (Commercial Cookery and Catering Stream)</t>
+  </si>
+  <si>
+    <t>Certificate IV in Patisserie + Advanced Diploma of Hospitality Management (Patisserie Stream)</t>
+  </si>
+  <si>
+    <t>Diploma of Hospitality Management + Advanced Diploma of Hospitality Management</t>
+  </si>
+  <si>
+    <t>Diploma of Travel and Tourism Management + Advanced Diploma of Travel and Tourism Management</t>
+  </si>
+  <si>
+    <t>Diploma of Event Management + Advanced Diploma of Event Management</t>
+  </si>
+  <si>
+    <t>NSW/QLD/TAS (Currently not accepting enrolments)</t>
+  </si>
+  <si>
+    <t>QLD/TAS</t>
+  </si>
+  <si>
+    <t>Promotion valid until  31th Dec 2021</t>
+  </si>
+  <si>
+    <t>SHELDON SCHOOL OF HOSPITALITY</t>
+  </si>
+  <si>
+    <t>091132A</t>
+  </si>
+  <si>
+    <t>44 wks Tuition + 8 wks Break</t>
+  </si>
+  <si>
+    <t>68 wks Tuition + 10 wks Break</t>
+  </si>
+  <si>
+    <t>92 wks Tuition + 12 wks Break</t>
+  </si>
+  <si>
     <t>48 wks Tuition + 4 wks Break</t>
   </si>
   <si>
-    <t>SIT40516</t>
-  </si>
-  <si>
-    <t>095244E</t>
-  </si>
-  <si>
-    <t>SIT31016</t>
-  </si>
-  <si>
-    <t>093481G</t>
-  </si>
-  <si>
-    <t>Certificate III in Patisserie</t>
-  </si>
-  <si>
-    <t>SIT40716</t>
-  </si>
-  <si>
-    <t>093479B</t>
-  </si>
-  <si>
-    <t>SIT50116</t>
-  </si>
-  <si>
-    <t>095245D</t>
-  </si>
-  <si>
-    <t>Travel Tourism</t>
-  </si>
-  <si>
-    <t>Diploma of Travel and Tourism Management</t>
-  </si>
-  <si>
-    <t>SIT60116</t>
-  </si>
-  <si>
-    <t>095246C</t>
-  </si>
-  <si>
-    <t>QLD/TAS</t>
-  </si>
-  <si>
-    <t>tuition</t>
-  </si>
-  <si>
-    <t>lcoationDetail</t>
-  </si>
-  <si>
-    <t>placementDuration</t>
-  </si>
-  <si>
-    <t>placementFee</t>
-  </si>
-  <si>
-    <t>Cookery</t>
-  </si>
-  <si>
-    <t>Patisserie and Baking</t>
-  </si>
-  <si>
-    <t>FBP40217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 106672A</t>
-  </si>
-  <si>
-    <t>Certificate IV in Baking</t>
-  </si>
-  <si>
-    <t>tuitionDetail</t>
-  </si>
-  <si>
-    <t>tuitionHalf</t>
-  </si>
-  <si>
-    <t>tuitionHalfDetail</t>
-  </si>
-  <si>
-    <t>6,000 tuition fee + 200 handling fee</t>
-  </si>
-  <si>
-    <t>6,750 tuition fee + 200 handling fee + 2x25 instalment fee</t>
-  </si>
-  <si>
-    <t>TAS</t>
-  </si>
-  <si>
-    <t>Certificate IV in Commercial Cookery (Fast track intensive course)</t>
-  </si>
-  <si>
-    <t>48 wks Tuition + 4 wks Break (up to 3 days p/week)</t>
-  </si>
-  <si>
-    <t>7,000 tuition fee + 200 handling fee</t>
-  </si>
-  <si>
-    <t>7,750 tuition fee + 200 handling fee + 2x25 instalment fee</t>
-  </si>
-  <si>
-    <t>Certificate IV in Patisserie (Fast track intensive course)</t>
-  </si>
-  <si>
-    <t>5,000 tuition fee + 200 handling fee</t>
-  </si>
-  <si>
-    <t>5,550 tuition fee + 200 handling fee + 2x25 instalment fee</t>
-  </si>
-  <si>
-    <t>Advanced Diploma of Travel and Tourism Management
-(Only valid for students who have successfully completed SIT50116 - Diploma of Travel and Tourism Management)</t>
+    <t>88 wks Tuition + 16 wks Break</t>
+  </si>
+  <si>
+    <t>093480J/091132A</t>
+  </si>
+  <si>
+    <t>Certificate III in Commercial Cookery + Advanced Diploma of Hospitality Management</t>
+  </si>
+  <si>
+    <t>093488A/091132A</t>
+  </si>
+  <si>
+    <t>8,750 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>14,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>17,500 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>10,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>18,500 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>11,500 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>9,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>18,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>13,500 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>For food/service periods information, please visit the individual course outlines on our website.</t>
+  </si>
+  <si>
+    <t>Duration can be fast tracked to be completed in 104 weeks;
+For food/service periods information, please visit the individual course outlines on our website.</t>
+  </si>
+  <si>
+    <t>Includes 48 complete food service periods for unit SITHCCC020 - Work effectively as a cook.</t>
+  </si>
+  <si>
+    <t>Includes 36 complete service periods (shifts) for unit SITHIND004 - Work effectively in hospitality service.</t>
+  </si>
+  <si>
+    <t>Includes 12 complete service periods (shifts) for unit SITHKOP005 - Coordinate cooking operations;Includes 48 complete food service periods for unit SITHCCC020 - Work effectively as a cook.</t>
+  </si>
+  <si>
+    <t>Includes 48 complete food service periods for unit SITHCCC020 - Work effectively as a cook;
+Includes 12 complete service periods (shifts) for unit SITHKOP005 - Coordinate cooking operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +430,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,31 +752,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,317 +801,993 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
       </c>
       <c r="E2">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="4">
-        <v>7000</v>
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8750</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
       </c>
       <c r="E3">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="4">
-        <v>7000</v>
+      <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8750</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="4">
-        <v>8000</v>
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="3">
+        <v>14000</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7000</v>
+        <v>104</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="3">
+        <v>17500</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
       </c>
       <c r="E6">
         <v>52</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4">
-        <v>8000</v>
+      <c r="H6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="45">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>52</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="4">
-        <v>8000</v>
+        <v>104</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="3">
+        <v>18500</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
       </c>
       <c r="E8">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>104</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="60">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="45">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="45">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="45">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="45">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="4">
-        <v>5800</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="60">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5800</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18">
+        <v>104</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="4">
+        <v>17500</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="45">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>104</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="4">
+        <v>17500</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="45">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="4">
+        <v>17500</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="45">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>104</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="4">
+        <v>17500</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="45">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2">
+        <v>104</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="4">
+        <v>18000</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="60">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>104</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="4">
+        <v>18000</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="60">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24">
+        <v>104</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="4">
+        <v>18000</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="45">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25">
+        <v>104</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="4">
+        <v>18000</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="45">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>104</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="4">
+        <v>18000</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="45">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>104</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="4">
+        <v>17500</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="45">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28">
+        <v>104</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="4">
+        <v>17500</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N9" xr:uid="{9F3A0A24-3B5C-4DA2-88D8-597EFC2D7E03}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/courses/excel/onshore/non-coe/aibt/SHELDON_SCHOOL_OF_HOSPITALITY.xlsx
+++ b/courses/excel/onshore/non-coe/aibt/SHELDON_SCHOOL_OF_HOSPITALITY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\courses\excel\onshore\non-coe\aibt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_8B0793BC943FBA864431EAE17198CF72AFB0052E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD42993-99C3-4A62-838A-794C36AE25B9}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18345" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">courses!$A$1:$M$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
   <si>
     <t>vetCode</t>
   </si>
@@ -320,16 +319,7 @@
     <t>Diploma of Event Management + Advanced Diploma of Event Management</t>
   </si>
   <si>
-    <t>NSW/QLD/TAS (Currently not accepting enrolments)</t>
-  </si>
-  <si>
     <t>QLD/TAS</t>
-  </si>
-  <si>
-    <t>Promotion valid until  31th Dec 2021</t>
-  </si>
-  <si>
-    <t>SHELDON SCHOOL OF HOSPITALITY</t>
   </si>
   <si>
     <t>091132A</t>
@@ -410,17 +400,50 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Cookery</t>
+  </si>
+  <si>
+    <t>Patisserie and Baking</t>
+  </si>
+  <si>
+    <t>Event Management</t>
+  </si>
+  <si>
+    <t>Travel and Tourism</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Currently not accepting enrolments</t>
+  </si>
+  <si>
+    <t>NSW/QLD/TAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSW/QLD/TAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSW/QLD/TAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,13 +451,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -751,37 +774,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,10 +860,10 @@
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -848,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -857,25 +880,23 @@
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I2" s="3">
         <v>8750</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R2" s="2"/>
       <c r="S2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -883,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -892,25 +913,23 @@
         <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I3" s="3">
         <v>8750</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -918,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -927,33 +946,31 @@
         <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I4" s="3">
         <v>14000</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R4" s="2"/>
       <c r="S4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>73</v>
@@ -962,25 +979,23 @@
         <v>104</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5" s="3">
         <v>17500</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R5" s="2"/>
       <c r="S5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -997,25 +1012,23 @@
         <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" s="3">
         <v>10000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R6" s="2"/>
       <c r="S6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
         <v>75</v>
@@ -1032,25 +1045,23 @@
         <v>104</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I7" s="3">
         <v>18500</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1067,25 +1078,23 @@
         <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I8" s="3">
         <v>14000</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
@@ -1102,25 +1111,23 @@
         <v>104</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I9" s="3">
         <v>17500</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1135,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
         <v>78</v>
@@ -1137,25 +1144,23 @@
         <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I10" s="3">
         <v>10000</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R10" s="2"/>
       <c r="S10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
         <v>79</v>
@@ -1172,25 +1177,23 @@
         <v>104</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3">
         <v>18500</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R11" s="2"/>
       <c r="S11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="60">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -1207,25 +1210,26 @@
         <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I12" s="3">
         <v>11500</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R12" s="2"/>
       <c r="S12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -1242,25 +1246,23 @@
         <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I13" s="3">
         <v>18500</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R13" s="2"/>
       <c r="S13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -1277,25 +1279,23 @@
         <v>52</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I14" s="3">
         <v>9000</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R14" s="2"/>
       <c r="S14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
         <v>83</v>
@@ -1312,25 +1312,23 @@
         <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I15" s="3">
         <v>10000</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R15" s="2"/>
       <c r="S15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
@@ -1347,25 +1345,23 @@
         <v>52</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I16" s="3">
         <v>9000</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R16" s="2"/>
       <c r="S16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1373,7 +1369,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>85</v>
@@ -1382,25 +1378,23 @@
         <v>78</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3">
         <v>13500</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R17" s="2"/>
       <c r="S17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="60">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1408,7 +1402,7 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>86</v>
@@ -1417,25 +1411,26 @@
         <v>104</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I18" s="4">
         <v>17500</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" s="2"/>
       <c r="S18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>87</v>
@@ -1452,25 +1447,23 @@
         <v>104</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I19" s="4">
         <v>17500</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R19" s="2"/>
       <c r="S19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1478,7 +1471,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>88</v>
@@ -1487,25 +1480,23 @@
         <v>104</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I20" s="4">
         <v>17500</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R20" s="2"/>
       <c r="S20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1513,7 +1504,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>89</v>
@@ -1522,69 +1513,65 @@
         <v>104</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I21" s="4">
         <v>17500</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R21" s="2"/>
       <c r="S21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2">
         <v>104</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I22" s="4">
         <v>18000</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="60">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>90</v>
@@ -1593,25 +1580,26 @@
         <v>104</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I23" s="4">
         <v>18000</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" t="s">
+        <v>129</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s">
         <v>116</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="60">
+    </row>
+    <row r="24" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -1619,7 +1607,7 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>91</v>
@@ -1628,25 +1616,23 @@
         <v>104</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I24" s="4">
         <v>18000</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" t="s">
         <v>116</v>
       </c>
-      <c r="M24" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="45">
+    </row>
+    <row r="25" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -1654,7 +1640,7 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>92</v>
@@ -1663,25 +1649,23 @@
         <v>104</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I25" s="4">
         <v>18000</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" t="s">
         <v>116</v>
       </c>
-      <c r="M25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="45">
+    </row>
+    <row r="26" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -1689,7 +1673,7 @@
         <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>93</v>
@@ -1698,25 +1682,23 @@
         <v>104</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I26" s="4">
         <v>18000</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" t="s">
         <v>116</v>
       </c>
-      <c r="M26" t="s">
-        <v>9</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="45">
+    </row>
+    <row r="27" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -1724,7 +1706,7 @@
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>94</v>
@@ -1733,25 +1715,23 @@
         <v>104</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I27" s="4">
         <v>17500</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R27" s="2"/>
       <c r="S27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
@@ -1759,7 +1739,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>95</v>
@@ -1768,22 +1748,20 @@
         <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I28" s="4">
         <v>17500</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R28" s="2"/>
       <c r="S28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
